--- a/tasks/AnalyticalCase/output/SevenDaySlidingAverage.xlsx
+++ b/tasks/AnalyticalCase/output/SevenDaySlidingAverage.xlsx
@@ -341,8 +341,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.83984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -358,7 +358,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="3">
@@ -366,7 +366,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.487500000000001</v>
       </c>
     </row>
     <row r="4">
@@ -374,7 +374,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.752727272727273</v>
       </c>
     </row>
     <row r="5">
@@ -382,7 +382,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.435833333333334</v>
       </c>
     </row>
     <row r="6">
@@ -390,7 +390,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.089375</v>
       </c>
     </row>
     <row r="7">
@@ -398,7 +398,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.253157894736842</v>
       </c>
     </row>
     <row r="8">
@@ -406,7 +406,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.4736363636363645</v>
       </c>
     </row>
     <row r="9">
@@ -414,7 +414,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.464615384615385</v>
       </c>
     </row>
     <row r="10">
@@ -422,7 +422,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.29913043478261</v>
       </c>
     </row>
     <row r="11">
@@ -430,7 +430,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.034800000000001</v>
       </c>
     </row>
     <row r="12">
@@ -438,7 +438,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.490625</v>
       </c>
     </row>
     <row r="13">
@@ -446,7 +446,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.8032258064516125</v>
       </c>
     </row>
     <row r="14">
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.68470588235294</v>
       </c>
     </row>
     <row r="15">
@@ -462,7 +462,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.446969696969696</v>
       </c>
     </row>
     <row r="16">
@@ -470,7 +470,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.5216666666666665</v>
       </c>
     </row>
     <row r="17">
@@ -478,7 +478,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.666363636363637</v>
       </c>
     </row>
     <row r="18">
@@ -486,7 +486,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.60027027027027</v>
       </c>
     </row>
     <row r="19">
@@ -494,7 +494,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.32764705882353</v>
       </c>
     </row>
     <row r="20">
@@ -502,7 +502,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.2592105263157904</v>
       </c>
     </row>
     <row r="21">
@@ -510,7 +510,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.355526315789475</v>
       </c>
     </row>
     <row r="22">
@@ -518,7 +518,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.535384615384618</v>
       </c>
     </row>
     <row r="23">
@@ -526,7 +526,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.460526315789475</v>
       </c>
     </row>
     <row r="24">
@@ -534,7 +534,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.19810810810811</v>
       </c>
     </row>
     <row r="25">
@@ -542,7 +542,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.27451612903226</v>
       </c>
     </row>
     <row r="26">
@@ -550,7 +550,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="27">
@@ -558,7 +558,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.158125000000001</v>
       </c>
     </row>
     <row r="28">
@@ -566,7 +566,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.003571428571428</v>
       </c>
     </row>
     <row r="29">
@@ -574,7 +574,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.131034482758621</v>
       </c>
     </row>
     <row r="30">
@@ -582,7 +582,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.163437500000001</v>
       </c>
     </row>
     <row r="31">
@@ -590,7 +590,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.4175</v>
       </c>
     </row>
     <row r="32">
@@ -598,7 +598,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.579189189189188</v>
       </c>
     </row>
     <row r="33">
@@ -606,7 +606,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.551142857142857</v>
       </c>
     </row>
     <row r="34">
@@ -614,7 +614,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.693714285714284</v>
       </c>
     </row>
     <row r="35">
@@ -622,7 +622,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.644</v>
       </c>
     </row>
     <row r="36">
@@ -630,7 +630,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.344318181818181</v>
       </c>
     </row>
     <row r="37">
@@ -638,7 +638,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.3252500000000005</v>
       </c>
     </row>
     <row r="38">
@@ -646,7 +646,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.087894736842105</v>
       </c>
     </row>
     <row r="39">
@@ -654,7 +654,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.973030303030302</v>
       </c>
     </row>
     <row r="40">
@@ -662,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.264411764705883</v>
       </c>
     </row>
     <row r="41">
@@ -670,7 +670,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.796774193548389</v>
       </c>
     </row>
     <row r="42">
@@ -678,7 +678,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.748928571428571</v>
       </c>
     </row>
     <row r="43">
@@ -686,7 +686,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.558333333333333</v>
       </c>
     </row>
     <row r="44">
@@ -694,7 +694,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.5495833333333335</v>
       </c>
     </row>
     <row r="45">
@@ -702,7 +702,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.261153846153845</v>
       </c>
     </row>
     <row r="46">
@@ -710,7 +710,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.253571428571428</v>
       </c>
     </row>
     <row r="47">
@@ -718,7 +718,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.126956521739131</v>
       </c>
     </row>
     <row r="48">
@@ -726,7 +726,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.362727272727273</v>
       </c>
     </row>
     <row r="49">
@@ -734,7 +734,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.558571428571429</v>
       </c>
     </row>
     <row r="50">
@@ -742,7 +742,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>6.17857142857143</v>
       </c>
     </row>
     <row r="51">
@@ -750,7 +750,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>6.030833333333334</v>
       </c>
     </row>
     <row r="52">
@@ -758,7 +758,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.531538461538462</v>
       </c>
     </row>
     <row r="53">
@@ -766,7 +766,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.3852</v>
       </c>
     </row>
     <row r="54">
@@ -774,7 +774,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.340370370370372</v>
       </c>
     </row>
     <row r="55">
@@ -782,7 +782,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.696896551724137</v>
       </c>
     </row>
     <row r="56">
@@ -790,7 +790,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.354375</v>
       </c>
     </row>
     <row r="57">
@@ -798,7 +798,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.913749999999999</v>
       </c>
     </row>
     <row r="58">
@@ -806,7 +806,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.272571428571428</v>
       </c>
     </row>
     <row r="59">
@@ -814,7 +814,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.1270588235294134</v>
       </c>
     </row>
     <row r="60">
@@ -822,7 +822,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.954102564102565</v>
       </c>
     </row>
     <row r="61">
@@ -830,7 +830,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.855581395348839</v>
       </c>
     </row>
     <row r="62">
@@ -838,7 +838,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.560250000000002</v>
       </c>
     </row>
     <row r="63">
@@ -846,7 +846,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.86075</v>
       </c>
     </row>
     <row r="64">
@@ -854,7 +854,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.052999999999999</v>
       </c>
     </row>
     <row r="65">
@@ -862,7 +862,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.827499999999998</v>
       </c>
     </row>
     <row r="66">
@@ -870,7 +870,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.928333333333333</v>
       </c>
     </row>
     <row r="67">
@@ -878,7 +878,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.1930000000000005</v>
       </c>
     </row>
     <row r="68">
@@ -886,7 +886,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.5592</v>
       </c>
     </row>
     <row r="69">
@@ -894,7 +894,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.841724137931035</v>
       </c>
     </row>
     <row r="70">
@@ -902,7 +902,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.478666666666666</v>
       </c>
     </row>
     <row r="71">
@@ -910,7 +910,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.281818181818183</v>
       </c>
     </row>
     <row r="72">
@@ -918,7 +918,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.310882352941177</v>
       </c>
     </row>
     <row r="73">
@@ -926,7 +926,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.4534375</v>
       </c>
     </row>
     <row r="74">
@@ -934,7 +934,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.151875000000001</v>
       </c>
     </row>
     <row r="75">
@@ -942,7 +942,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.793428571428573</v>
       </c>
     </row>
     <row r="76">
@@ -950,7 +950,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.620588235294117</v>
       </c>
     </row>
     <row r="77">
@@ -958,7 +958,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.835312499999998</v>
       </c>
     </row>
     <row r="78">
@@ -966,7 +966,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.566333333333332</v>
       </c>
     </row>
     <row r="79">
@@ -974,7 +974,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.586428571428572</v>
       </c>
     </row>
     <row r="80">
@@ -982,7 +982,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.846129032258064</v>
       </c>
     </row>
     <row r="81">
@@ -990,7 +990,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>6.0687878787878775</v>
       </c>
     </row>
     <row r="82">
@@ -998,7 +998,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>6.4734375</v>
       </c>
     </row>
     <row r="83">
@@ -1006,7 +1006,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>6.401333333333334</v>
       </c>
     </row>
     <row r="84">
@@ -1014,7 +1014,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>6.41551724137931</v>
       </c>
     </row>
     <row r="85">
@@ -1022,7 +1022,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.945769230769231</v>
       </c>
     </row>
     <row r="86">
@@ -1030,7 +1030,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.652068965517241</v>
       </c>
     </row>
     <row r="87">
@@ -1038,7 +1038,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>5.177777777777778</v>
       </c>
     </row>
     <row r="88">
@@ -1046,7 +1046,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.966666666666667</v>
       </c>
     </row>
     <row r="89">
@@ -1054,7 +1054,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.5484</v>
       </c>
     </row>
     <row r="90">
@@ -1062,7 +1062,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.6328</v>
       </c>
     </row>
     <row r="91">
@@ -1070,7 +1070,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n" s="0">
-        <v>4.511851851851852</v>
+        <v>4.489166666666667</v>
       </c>
     </row>
     <row r="92">
